--- a/shopping-recipe-app note.xlsx
+++ b/shopping-recipe-app note.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\shopping-recipe-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C02964-BAA5-4AD6-8BA8-43AACEBA5DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B887F-3676-4A81-A27C-22C752633C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project plan" sheetId="3" r:id="rId1"/>
     <sheet name="create components" sheetId="1" r:id="rId2"/>
     <sheet name="header" sheetId="2" r:id="rId3"/>
     <sheet name="recipe.model.ts" sheetId="4" r:id="rId4"/>
+    <sheet name="Navigate with event &amp; ngIf" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Шинээр үүсгэсэн модел</t>
   </si>
@@ -38,12 +39,21 @@
   <si>
     <t>Шинээр үүсгэсэн моделийг ашиглаж буй байдал    HTML file</t>
   </si>
+  <si>
+    <t>Adding Navigation with Event Binding and ngIf</t>
+  </si>
+  <si>
+    <t>Header component дээр custom event-ээр утгыг дамжуулж байна.</t>
+  </si>
+  <si>
+    <t>Header component ээс ирэх утгыг аваад navigate хийж байна.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +66,14 @@
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,6 +486,705 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891F4BC1-DFD9-3F71-B835-4A05DCFD722E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="982980"/>
+          <a:ext cx="6705600" cy="4134222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480471</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16E6548-6E71-54BD-CE4E-CF55AB0BAA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932420" y="822960"/>
+          <a:ext cx="4740051" cy="2491956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16492E56-F0BA-5058-5E10-86AB836E7220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2529840" y="2667000"/>
+          <a:ext cx="1699260" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293E3527-1396-49BE-8020-3A692276F926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2522220" y="2827020"/>
+          <a:ext cx="2103120" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5AA508-2994-4D98-87CE-A785DC5C0B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8526780" y="2316480"/>
+          <a:ext cx="3352800" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914F6887-A9E4-335C-3715-F6D43BC23AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="5341620"/>
+          <a:ext cx="6919560" cy="2217612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D479754D-99FF-4F82-A96E-F068DD0BA270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="6675120"/>
+          <a:ext cx="2103120" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ED033B-038C-470C-AA8C-F3F06204077E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="6827520"/>
+          <a:ext cx="2468880" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>145096</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D257C3E-8ACA-95C3-35DB-8FDF3415A25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8694420" y="5364480"/>
+          <a:ext cx="3642676" cy="3071126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD825473-6117-4EA0-9C0B-A1DF41578E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="7338060"/>
+          <a:ext cx="2499360" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758132C8-00C9-4C1F-BA6C-F1E853F76CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="6111240"/>
+          <a:ext cx="2286000" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA427AC1-EBDD-36B2-6E18-9A912FB6C742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2545080" y="2430780"/>
+          <a:ext cx="6819900" cy="3627120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -787,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B16D0B2-01F3-4CC8-AF62-0365754F6FF6}">
   <dimension ref="B2:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -812,4 +1530,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8CF8DE-B0DC-459C-AAF2-00A73F042D28}">
+  <dimension ref="B2:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/shopping-recipe-app note.xlsx
+++ b/shopping-recipe-app note.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\shopping-recipe-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-angular-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B887F-3676-4A81-A27C-22C752633C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="project plan" sheetId="3" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="header" sheetId="2" r:id="rId3"/>
     <sheet name="recipe.model.ts" sheetId="4" r:id="rId4"/>
     <sheet name="Navigate with event &amp; ngIf" sheetId="5" r:id="rId5"/>
+    <sheet name="form" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Шинээр үүсгэсэн модел</t>
   </si>
@@ -48,12 +48,18 @@
   <si>
     <t>Header component ээс ирэх утгыг аваад navigate хийж байна.</t>
   </si>
+  <si>
+    <t>removeAt()</t>
+  </si>
+  <si>
+    <t>[pattern]="' ''"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +77,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,12 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,6 +1200,87 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75433</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="487680"/>
+          <a:ext cx="6133333" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>269717</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>77661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="6964680"/>
+          <a:ext cx="6342857" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1452,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9403C093-E11D-4C13-A09E-8736B831A5F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1467,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1482,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA5FD40-3190-4DB5-80AC-23F2994DFDEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1502,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B16D0B2-01F3-4CC8-AF62-0365754F6FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,10 +1629,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8CF8DE-B0DC-459C-AAF2-00A73F042D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -1562,4 +1658,37 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>